--- a/docs/data_lulus_diterima_umm.xlsx
+++ b/docs/data_lulus_diterima_umm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\Dashboard\23pmb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C14239-A356-49CE-A06E-BE6A04420DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC12001-9BD7-4E7F-8F56-255312DD1453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="17">
   <si>
     <t>L</t>
   </si>
@@ -138,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -155,13 +155,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2222,11 +2215,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H684"/>
+  <dimension ref="A1:H685"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A634" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H652" sqref="H652"/>
+      <pane ySplit="1" topLeftCell="A661" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H681" sqref="H681"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20783,7 +20776,7 @@
         <v>14</v>
       </c>
       <c r="H642" t="str">
-        <f t="shared" ref="H642:H684" si="10">IF(C642="","Calon Mahasiswa","Mahasiswa")</f>
+        <f t="shared" ref="H642:H685" si="10">IF(C642="","Calon Mahasiswa","Mahasiswa")</f>
         <v>Mahasiswa</v>
       </c>
     </row>
@@ -20846,16 +20839,16 @@
       </c>
     </row>
     <row r="645" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A645" s="7">
+      <c r="A645" s="2">
         <v>8881190004</v>
       </c>
       <c r="B645" t="s">
         <v>1</v>
       </c>
-      <c r="C645" s="8">
+      <c r="C645">
         <v>8831230008</v>
       </c>
-      <c r="D645" s="9">
+      <c r="D645" s="1">
         <v>8831</v>
       </c>
       <c r="E645" s="6" t="str">
@@ -20875,16 +20868,16 @@
       </c>
     </row>
     <row r="646" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A646" s="7">
+      <c r="A646" s="2">
         <v>8881190006</v>
       </c>
       <c r="B646" t="s">
         <v>1</v>
       </c>
-      <c r="C646" s="8">
+      <c r="C646">
         <v>8831230003</v>
       </c>
-      <c r="D646" s="9">
+      <c r="D646" s="1">
         <v>8831</v>
       </c>
       <c r="E646" s="6" t="str">
@@ -20904,16 +20897,16 @@
       </c>
     </row>
     <row r="647" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A647" s="7">
+      <c r="A647" s="2">
         <v>8881190010</v>
       </c>
       <c r="B647" t="s">
         <v>1</v>
       </c>
-      <c r="C647" s="8">
+      <c r="C647">
         <v>8831230019</v>
       </c>
-      <c r="D647" s="9">
+      <c r="D647" s="1">
         <v>8831</v>
       </c>
       <c r="E647" s="6" t="str">
@@ -20933,16 +20926,16 @@
       </c>
     </row>
     <row r="648" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A648" s="7">
+      <c r="A648" s="2">
         <v>8881190023</v>
       </c>
       <c r="B648" t="s">
         <v>0</v>
       </c>
-      <c r="C648" s="8">
+      <c r="C648">
         <v>8831230012</v>
       </c>
-      <c r="D648" s="9">
+      <c r="D648" s="1">
         <v>8831</v>
       </c>
       <c r="E648" s="6" t="str">
@@ -20962,16 +20955,16 @@
       </c>
     </row>
     <row r="649" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A649" s="7">
+      <c r="A649" s="2">
         <v>8881190005</v>
       </c>
       <c r="B649" t="s">
         <v>1</v>
       </c>
-      <c r="C649" s="8">
+      <c r="C649">
         <v>8831230009</v>
       </c>
-      <c r="D649" s="9">
+      <c r="D649" s="1">
         <v>8831</v>
       </c>
       <c r="E649" s="6" t="str">
@@ -20991,16 +20984,16 @@
       </c>
     </row>
     <row r="650" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A650" s="7">
+      <c r="A650" s="2">
         <v>8881190015</v>
       </c>
       <c r="B650" t="s">
         <v>1</v>
       </c>
-      <c r="C650" s="8">
+      <c r="C650">
         <v>8831230005</v>
       </c>
-      <c r="D650" s="9">
+      <c r="D650" s="1">
         <v>8831</v>
       </c>
       <c r="E650" s="6" t="str">
@@ -21020,16 +21013,16 @@
       </c>
     </row>
     <row r="651" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A651" s="7">
+      <c r="A651" s="2">
         <v>8881190001</v>
       </c>
       <c r="B651" t="s">
         <v>1</v>
       </c>
-      <c r="C651" s="8">
+      <c r="C651">
         <v>8831230001</v>
       </c>
-      <c r="D651" s="9">
+      <c r="D651" s="1">
         <v>8831</v>
       </c>
       <c r="E651" s="6" t="str">
@@ -21049,16 +21042,16 @@
       </c>
     </row>
     <row r="652" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A652" s="7">
+      <c r="A652" s="2">
         <v>8881190002</v>
       </c>
       <c r="B652" t="s">
         <v>1</v>
       </c>
-      <c r="C652" s="8">
+      <c r="C652">
         <v>8831230006</v>
       </c>
-      <c r="D652" s="9">
+      <c r="D652" s="1">
         <v>8831</v>
       </c>
       <c r="E652" s="6" t="str">
@@ -21078,16 +21071,16 @@
       </c>
     </row>
     <row r="653" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A653" s="7">
+      <c r="A653" s="2">
         <v>8881190003</v>
       </c>
       <c r="B653" t="s">
         <v>1</v>
       </c>
-      <c r="C653" s="8">
+      <c r="C653">
         <v>8831230002</v>
       </c>
-      <c r="D653" s="9">
+      <c r="D653" s="1">
         <v>8831</v>
       </c>
       <c r="E653" s="6" t="str">
@@ -21107,16 +21100,16 @@
       </c>
     </row>
     <row r="654" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A654" s="7">
+      <c r="A654" s="2">
         <v>8881190007</v>
       </c>
       <c r="B654" t="s">
         <v>1</v>
       </c>
-      <c r="C654" s="8">
+      <c r="C654">
         <v>8831230004</v>
       </c>
-      <c r="D654" s="9">
+      <c r="D654" s="1">
         <v>8831</v>
       </c>
       <c r="E654" s="6" t="str">
@@ -21136,16 +21129,16 @@
       </c>
     </row>
     <row r="655" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A655" s="7">
+      <c r="A655" s="2">
         <v>8881190008</v>
       </c>
       <c r="B655" t="s">
         <v>0</v>
       </c>
-      <c r="C655" s="8">
+      <c r="C655">
         <v>8831230021</v>
       </c>
-      <c r="D655" s="9">
+      <c r="D655" s="1">
         <v>8831</v>
       </c>
       <c r="E655" s="6" t="str">
@@ -21165,16 +21158,16 @@
       </c>
     </row>
     <row r="656" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A656" s="7">
+      <c r="A656" s="2">
         <v>8881190012</v>
       </c>
       <c r="B656" t="s">
         <v>1</v>
       </c>
-      <c r="C656" s="8">
+      <c r="C656">
         <v>8831230018</v>
       </c>
-      <c r="D656" s="9">
+      <c r="D656" s="1">
         <v>8831</v>
       </c>
       <c r="E656" s="6" t="str">
@@ -21194,16 +21187,16 @@
       </c>
     </row>
     <row r="657" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A657" s="7">
+      <c r="A657" s="2">
         <v>8881190014</v>
       </c>
       <c r="B657" t="s">
         <v>1</v>
       </c>
-      <c r="C657" s="8">
+      <c r="C657">
         <v>8831230026</v>
       </c>
-      <c r="D657" s="9">
+      <c r="D657" s="1">
         <v>8831</v>
       </c>
       <c r="E657" s="6" t="str">
@@ -21223,16 +21216,16 @@
       </c>
     </row>
     <row r="658" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A658" s="7">
+      <c r="A658" s="2">
         <v>8881190017</v>
       </c>
       <c r="B658" t="s">
         <v>1</v>
       </c>
-      <c r="C658" s="8">
+      <c r="C658">
         <v>8831230007</v>
       </c>
-      <c r="D658" s="9">
+      <c r="D658" s="1">
         <v>8831</v>
       </c>
       <c r="E658" s="6" t="str">
@@ -21252,16 +21245,16 @@
       </c>
     </row>
     <row r="659" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A659" s="7">
+      <c r="A659" s="2">
         <v>8881190019</v>
       </c>
       <c r="B659" t="s">
         <v>1</v>
       </c>
-      <c r="C659" s="8">
+      <c r="C659">
         <v>8831230022</v>
       </c>
-      <c r="D659" s="9">
+      <c r="D659" s="1">
         <v>8831</v>
       </c>
       <c r="E659" s="6" t="str">
@@ -21281,16 +21274,16 @@
       </c>
     </row>
     <row r="660" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A660" s="7">
+      <c r="A660" s="2">
         <v>8881190024</v>
       </c>
       <c r="B660" t="s">
         <v>1</v>
       </c>
-      <c r="C660" s="8">
+      <c r="C660">
         <v>8831230023</v>
       </c>
-      <c r="D660" s="9">
+      <c r="D660" s="1">
         <v>8831</v>
       </c>
       <c r="E660" s="6" t="str">
@@ -21310,16 +21303,16 @@
       </c>
     </row>
     <row r="661" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A661" s="7">
+      <c r="A661" s="2">
         <v>8881190025</v>
       </c>
       <c r="B661" t="s">
         <v>1</v>
       </c>
-      <c r="C661" s="8">
+      <c r="C661">
         <v>8831230027</v>
       </c>
-      <c r="D661" s="9">
+      <c r="D661" s="1">
         <v>8831</v>
       </c>
       <c r="E661" s="6" t="str">
@@ -21339,16 +21332,16 @@
       </c>
     </row>
     <row r="662" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A662" s="7">
+      <c r="A662" s="2">
         <v>8881190011</v>
       </c>
       <c r="B662" t="s">
         <v>1</v>
       </c>
-      <c r="C662" s="8">
+      <c r="C662">
         <v>8831230035</v>
       </c>
-      <c r="D662" s="9">
+      <c r="D662" s="1">
         <v>8831</v>
       </c>
       <c r="E662" s="6" t="str">
@@ -21368,16 +21361,16 @@
       </c>
     </row>
     <row r="663" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A663" s="7">
+      <c r="A663" s="2">
         <v>8881190013</v>
       </c>
       <c r="B663" t="s">
         <v>1</v>
       </c>
-      <c r="C663" s="8">
+      <c r="C663">
         <v>8831230015</v>
       </c>
-      <c r="D663" s="9">
+      <c r="D663" s="1">
         <v>8831</v>
       </c>
       <c r="E663" s="6" t="str">
@@ -21397,16 +21390,16 @@
       </c>
     </row>
     <row r="664" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A664" s="7">
+      <c r="A664" s="2">
         <v>8881190016</v>
       </c>
       <c r="B664" t="s">
         <v>1</v>
       </c>
-      <c r="C664" s="8">
+      <c r="C664">
         <v>8831230010</v>
       </c>
-      <c r="D664" s="9">
+      <c r="D664" s="1">
         <v>8831</v>
       </c>
       <c r="E664" s="6" t="str">
@@ -21426,16 +21419,16 @@
       </c>
     </row>
     <row r="665" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A665" s="7">
+      <c r="A665" s="2">
         <v>8881190018</v>
       </c>
       <c r="B665" t="s">
         <v>1</v>
       </c>
-      <c r="C665" s="8">
+      <c r="C665">
         <v>8831230014</v>
       </c>
-      <c r="D665" s="9">
+      <c r="D665" s="1">
         <v>8831</v>
       </c>
       <c r="E665" s="6" t="str">
@@ -21455,16 +21448,16 @@
       </c>
     </row>
     <row r="666" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A666" s="7">
+      <c r="A666" s="2">
         <v>8881190020</v>
       </c>
       <c r="B666" t="s">
         <v>1</v>
       </c>
-      <c r="C666" s="8">
+      <c r="C666">
         <v>8831230031</v>
       </c>
-      <c r="D666" s="9">
+      <c r="D666" s="1">
         <v>8831</v>
       </c>
       <c r="E666" s="6" t="str">
@@ -21484,16 +21477,16 @@
       </c>
     </row>
     <row r="667" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A667" s="7">
+      <c r="A667" s="2">
         <v>8881190026</v>
       </c>
       <c r="B667" t="s">
         <v>1</v>
       </c>
-      <c r="C667" s="8">
+      <c r="C667">
         <v>8831230025</v>
       </c>
-      <c r="D667" s="9">
+      <c r="D667" s="1">
         <v>8831</v>
       </c>
       <c r="E667" s="6" t="str">
@@ -21513,16 +21506,16 @@
       </c>
     </row>
     <row r="668" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A668" s="7">
+      <c r="A668" s="2">
         <v>8881190029</v>
       </c>
       <c r="B668" t="s">
         <v>1</v>
       </c>
-      <c r="C668" s="8">
+      <c r="C668">
         <v>8831230013</v>
       </c>
-      <c r="D668" s="9">
+      <c r="D668" s="1">
         <v>8831</v>
       </c>
       <c r="E668" s="6" t="str">
@@ -21542,16 +21535,16 @@
       </c>
     </row>
     <row r="669" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A669" s="7">
+      <c r="A669" s="2">
         <v>8881190030</v>
       </c>
       <c r="B669" t="s">
         <v>1</v>
       </c>
-      <c r="C669" s="8">
+      <c r="C669">
         <v>8831230029</v>
       </c>
-      <c r="D669" s="9">
+      <c r="D669" s="1">
         <v>8831</v>
       </c>
       <c r="E669" s="6" t="str">
@@ -21571,16 +21564,16 @@
       </c>
     </row>
     <row r="670" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A670" s="7">
+      <c r="A670" s="2">
         <v>8881190031</v>
       </c>
       <c r="B670" t="s">
         <v>1</v>
       </c>
-      <c r="C670" s="8">
+      <c r="C670">
         <v>8831230034</v>
       </c>
-      <c r="D670" s="9">
+      <c r="D670" s="1">
         <v>8831</v>
       </c>
       <c r="E670" s="6" t="str">
@@ -21600,16 +21593,16 @@
       </c>
     </row>
     <row r="671" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A671" s="7">
+      <c r="A671" s="2">
         <v>8881190033</v>
       </c>
       <c r="B671" t="s">
         <v>1</v>
       </c>
-      <c r="C671" s="8">
+      <c r="C671">
         <v>8831230030</v>
       </c>
-      <c r="D671" s="9">
+      <c r="D671" s="1">
         <v>8831</v>
       </c>
       <c r="E671" s="6" t="str">
@@ -21629,16 +21622,16 @@
       </c>
     </row>
     <row r="672" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A672" s="7">
+      <c r="A672" s="2">
         <v>8881190035</v>
       </c>
       <c r="B672" t="s">
         <v>0</v>
       </c>
-      <c r="C672" s="8">
+      <c r="C672">
         <v>8831230040</v>
       </c>
-      <c r="D672" s="9">
+      <c r="D672" s="1">
         <v>8831</v>
       </c>
       <c r="E672" s="6" t="str">
@@ -21658,16 +21651,16 @@
       </c>
     </row>
     <row r="673" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A673" s="7">
+      <c r="A673" s="2">
         <v>8881190036</v>
       </c>
       <c r="B673" t="s">
         <v>1</v>
       </c>
-      <c r="C673" s="8">
+      <c r="C673">
         <v>8831230011</v>
       </c>
-      <c r="D673" s="9">
+      <c r="D673" s="1">
         <v>8831</v>
       </c>
       <c r="E673" s="6" t="str">
@@ -21687,16 +21680,16 @@
       </c>
     </row>
     <row r="674" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A674" s="7">
+      <c r="A674" s="2">
         <v>8881190038</v>
       </c>
       <c r="B674" t="s">
         <v>1</v>
       </c>
-      <c r="C674" s="8">
+      <c r="C674">
         <v>8831230028</v>
       </c>
-      <c r="D674" s="9">
+      <c r="D674" s="1">
         <v>8831</v>
       </c>
       <c r="E674" s="6" t="str">
@@ -21716,16 +21709,16 @@
       </c>
     </row>
     <row r="675" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A675" s="7">
+      <c r="A675" s="2">
         <v>8881190039</v>
       </c>
       <c r="B675" t="s">
         <v>1</v>
       </c>
-      <c r="C675" s="8">
+      <c r="C675">
         <v>8831230024</v>
       </c>
-      <c r="D675" s="9">
+      <c r="D675" s="1">
         <v>8831</v>
       </c>
       <c r="E675" s="6" t="str">
@@ -21745,16 +21738,16 @@
       </c>
     </row>
     <row r="676" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A676" s="7">
+      <c r="A676" s="2">
         <v>8881190040</v>
       </c>
       <c r="B676" t="s">
         <v>1</v>
       </c>
-      <c r="C676" s="8">
+      <c r="C676">
         <v>8831230020</v>
       </c>
-      <c r="D676" s="9">
+      <c r="D676" s="1">
         <v>8831</v>
       </c>
       <c r="E676" s="6" t="str">
@@ -21774,16 +21767,16 @@
       </c>
     </row>
     <row r="677" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A677" s="7">
+      <c r="A677" s="2">
         <v>8881190041</v>
       </c>
       <c r="B677" t="s">
         <v>1</v>
       </c>
-      <c r="C677" s="8">
+      <c r="C677">
         <v>8831230038</v>
       </c>
-      <c r="D677" s="9">
+      <c r="D677" s="1">
         <v>8831</v>
       </c>
       <c r="E677" s="6" t="str">
@@ -21803,16 +21796,16 @@
       </c>
     </row>
     <row r="678" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A678" s="7">
+      <c r="A678" s="2">
         <v>8881190042</v>
       </c>
       <c r="B678" t="s">
         <v>1</v>
       </c>
-      <c r="C678" s="8">
+      <c r="C678">
         <v>8831230039</v>
       </c>
-      <c r="D678" s="9">
+      <c r="D678" s="1">
         <v>8831</v>
       </c>
       <c r="E678" s="6" t="str">
@@ -21832,16 +21825,16 @@
       </c>
     </row>
     <row r="679" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A679" s="7">
+      <c r="A679" s="2">
         <v>8881190043</v>
       </c>
       <c r="B679" t="s">
         <v>0</v>
       </c>
-      <c r="C679" s="8">
+      <c r="C679">
         <v>8831230033</v>
       </c>
-      <c r="D679" s="9">
+      <c r="D679" s="1">
         <v>8831</v>
       </c>
       <c r="E679" s="6" t="str">
@@ -21861,16 +21854,16 @@
       </c>
     </row>
     <row r="680" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A680" s="7">
+      <c r="A680" s="2">
         <v>8881190044</v>
       </c>
       <c r="B680" t="s">
         <v>1</v>
       </c>
-      <c r="C680" s="8">
+      <c r="C680">
         <v>8831230032</v>
       </c>
-      <c r="D680" s="9">
+      <c r="D680" s="1">
         <v>8831</v>
       </c>
       <c r="E680" s="6" t="str">
@@ -21890,16 +21883,16 @@
       </c>
     </row>
     <row r="681" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A681" s="7">
+      <c r="A681" s="2">
         <v>8881190045</v>
       </c>
       <c r="B681" t="s">
         <v>1</v>
       </c>
-      <c r="C681" s="8">
+      <c r="C681">
         <v>8831230037</v>
       </c>
-      <c r="D681" s="9">
+      <c r="D681" s="1">
         <v>8831</v>
       </c>
       <c r="E681" s="6" t="str">
@@ -21919,16 +21912,16 @@
       </c>
     </row>
     <row r="682" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A682" s="7">
+      <c r="A682" s="2">
         <v>8881190047</v>
       </c>
       <c r="B682" t="s">
         <v>1</v>
       </c>
-      <c r="C682" s="8">
+      <c r="C682">
         <v>8831230016</v>
       </c>
-      <c r="D682" s="9">
+      <c r="D682" s="1">
         <v>8831</v>
       </c>
       <c r="E682" s="6" t="str">
@@ -21948,16 +21941,16 @@
       </c>
     </row>
     <row r="683" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A683" s="7">
+      <c r="A683" s="2">
         <v>8881190049</v>
       </c>
       <c r="B683" t="s">
         <v>1</v>
       </c>
-      <c r="C683" s="8">
+      <c r="C683">
         <v>8831230036</v>
       </c>
-      <c r="D683" s="9">
+      <c r="D683" s="1">
         <v>8831</v>
       </c>
       <c r="E683" s="6" t="str">
@@ -21977,16 +21970,16 @@
       </c>
     </row>
     <row r="684" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A684" s="7">
+      <c r="A684" s="2">
         <v>8881190050</v>
       </c>
       <c r="B684" t="s">
         <v>1</v>
       </c>
-      <c r="C684" s="8">
+      <c r="C684">
         <v>8831230017</v>
       </c>
-      <c r="D684" s="9">
+      <c r="D684" s="1">
         <v>8831</v>
       </c>
       <c r="E684" s="6" t="str">
@@ -22001,6 +21994,35 @@
         <v>16</v>
       </c>
       <c r="H684" t="str">
+        <f t="shared" si="10"/>
+        <v>Mahasiswa</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A685" s="2">
+        <v>23529876</v>
+      </c>
+      <c r="B685" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C685">
+        <v>7775230027</v>
+      </c>
+      <c r="D685" s="1">
+        <v>7775</v>
+      </c>
+      <c r="E685" s="6" t="str">
+        <f>VLOOKUP(D685,[1]Sheet2!$B$2:$G$87,4,FALSE)</f>
+        <v>MAGISTER ADMINISTRASI PUBLIK</v>
+      </c>
+      <c r="F685" t="str">
+        <f>VLOOKUP(D685,[1]Sheet2!$B$2:$G$87,6,FALSE)</f>
+        <v>S2</v>
+      </c>
+      <c r="G685" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H685" t="str">
         <f t="shared" si="10"/>
         <v>Mahasiswa</v>
       </c>

--- a/docs/data_lulus_diterima_umm.xlsx
+++ b/docs/data_lulus_diterima_umm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\Dashboard\23pmb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC12001-9BD7-4E7F-8F56-255312DD1453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218EC657-78D8-4B89-86BC-7123EEC77898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="17">
   <si>
     <t>L</t>
   </si>
@@ -214,39 +214,39 @@
         </row>
         <row r="3">
           <cell r="B3">
-            <v>2237</v>
+            <v>20401</v>
           </cell>
           <cell r="C3">
-            <v>2237</v>
+            <v>1111</v>
           </cell>
           <cell r="D3">
-            <v>2237</v>
+            <v>1111</v>
           </cell>
           <cell r="E3" t="str">
-            <v>PENDIDIKAN PROFESI GURU</v>
+            <v>HUKUM (S1)</v>
           </cell>
           <cell r="F3" t="str">
-            <v>PENDIDIKAN PROFESI GURU</v>
+            <v>HUKUM (S1)</v>
           </cell>
           <cell r="G3" t="str">
-            <v>PR</v>
+            <v>S1</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>3337</v>
+            <v>20708</v>
           </cell>
           <cell r="C4">
-            <v>3337</v>
+            <v>2221</v>
           </cell>
           <cell r="D4">
-            <v>3337</v>
+            <v>2221</v>
           </cell>
           <cell r="E4" t="str">
-            <v>INFORMATIKA</v>
+            <v>PENDIDIKAN NON FORMAL</v>
           </cell>
           <cell r="F4" t="str">
-            <v>INFORMATIKA</v>
+            <v>PENDIDIKAN NON FORMAL</v>
           </cell>
           <cell r="G4" t="str">
             <v>S1</v>
@@ -254,19 +254,19 @@
         </row>
         <row r="5">
           <cell r="B5">
-            <v>3338</v>
+            <v>20717</v>
           </cell>
           <cell r="C5">
-            <v>3338</v>
+            <v>2222</v>
           </cell>
           <cell r="D5">
-            <v>3338</v>
+            <v>2222</v>
           </cell>
           <cell r="E5" t="str">
-            <v>STATISTIKA</v>
+            <v>PENDIDIKAN BAHASA INDONESIA (S1)</v>
           </cell>
           <cell r="F5" t="str">
-            <v>STATISTIKA</v>
+            <v>PENDIDIKAN BAHASA INDONESIA</v>
           </cell>
           <cell r="G5" t="str">
             <v>S1</v>
@@ -274,39 +274,39 @@
         </row>
         <row r="6">
           <cell r="B6">
-            <v>3440</v>
+            <v>20718</v>
           </cell>
           <cell r="C6">
-            <v>8801</v>
+            <v>2223</v>
           </cell>
           <cell r="D6">
-            <v>8801</v>
+            <v>2223</v>
           </cell>
           <cell r="E6" t="str">
-            <v>KEPERAWATAN D3</v>
+            <v>PENDIDIKAN BAHASA INGGRIS</v>
           </cell>
           <cell r="F6" t="str">
-            <v>KEPERAWATAN D3</v>
+            <v>PENDIDIKAN BAHASA INGGRIS</v>
           </cell>
           <cell r="G6" t="str">
-            <v>D3</v>
+            <v>S1</v>
           </cell>
         </row>
         <row r="7">
           <cell r="B7">
-            <v>4444</v>
+            <v>10710</v>
           </cell>
           <cell r="C7">
-            <v>4444</v>
+            <v>2224</v>
           </cell>
           <cell r="D7">
-            <v>4444</v>
+            <v>2224</v>
           </cell>
           <cell r="E7" t="str">
-            <v>TEKNOLOGI PANGAN</v>
+            <v>PENDIDIKAN BIOLOGI</v>
           </cell>
           <cell r="F7" t="str">
-            <v>TEKNOLOGI PANGAN</v>
+            <v>PENDIDIKAN BIOLOGI</v>
           </cell>
           <cell r="G7" t="str">
             <v>S1</v>
@@ -314,19 +314,19 @@
         </row>
         <row r="8">
           <cell r="B8">
-            <v>4445</v>
+            <v>10707</v>
           </cell>
           <cell r="C8">
-            <v>4445</v>
+            <v>2225</v>
           </cell>
           <cell r="D8">
-            <v>4445</v>
+            <v>2225</v>
           </cell>
           <cell r="E8" t="str">
-            <v>ILMU KELAUTAN</v>
+            <v>PENDIDIKAN MATEMATIKA</v>
           </cell>
           <cell r="F8" t="str">
-            <v>ILMU KELAUTAN</v>
+            <v>PENDIDIKAN MATEMATIKA</v>
           </cell>
           <cell r="G8" t="str">
             <v>S1</v>
@@ -334,19 +334,19 @@
         </row>
         <row r="9">
           <cell r="B9">
-            <v>4446</v>
+            <v>20725</v>
           </cell>
           <cell r="C9">
-            <v>4446</v>
+            <v>2226</v>
           </cell>
           <cell r="D9">
-            <v>4446</v>
+            <v>2226</v>
           </cell>
           <cell r="E9" t="str">
-            <v>PETERNAKAN</v>
+            <v>PENDIDIKAN GURU TAMAN KANAK-KANAK</v>
           </cell>
           <cell r="F9" t="str">
-            <v>PETERNAKAN</v>
+            <v>PENDIDIKAN GURU TAMAN KANAK-KANAK</v>
           </cell>
           <cell r="G9" t="str">
             <v>S1</v>
@@ -354,19 +354,19 @@
         </row>
         <row r="10">
           <cell r="B10">
-            <v>5554</v>
+            <v>20711</v>
           </cell>
           <cell r="C10">
-            <v>5554</v>
+            <v>2227</v>
           </cell>
           <cell r="D10">
-            <v>5554</v>
+            <v>2227</v>
           </cell>
           <cell r="E10" t="str">
-            <v>EKONOMI SYARIAH</v>
+            <v>PENDIDIKAN GURU SEKOLAH DASAR</v>
           </cell>
           <cell r="F10" t="str">
-            <v>EKONOMI SYARIAH</v>
+            <v>PENDIDIKAN GURU SEKOLAH DASAR</v>
           </cell>
           <cell r="G10" t="str">
             <v>S1</v>
@@ -374,419 +374,419 @@
         </row>
         <row r="11">
           <cell r="B11">
-            <v>7771</v>
+            <v>20707</v>
           </cell>
           <cell r="C11">
-            <v>7771</v>
+            <v>2228</v>
           </cell>
           <cell r="D11">
-            <v>7771</v>
+            <v>2228</v>
           </cell>
           <cell r="E11" t="str">
-            <v>PENDIDIKAN BAHASA INDONESIA (S2)</v>
+            <v>PENDIDIKAN GURU PENDIDIKAN ANAK USIA DINI</v>
           </cell>
           <cell r="F11" t="str">
-            <v>PENDIDIKAN BAHASA INDONESIA</v>
+            <v>PENDIDIKAN ANAK USIA DINI</v>
           </cell>
           <cell r="G11" t="str">
-            <v>S2</v>
+            <v>S1</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12">
-            <v>7772</v>
+            <v>2237</v>
           </cell>
           <cell r="C12">
-            <v>7772</v>
+            <v>2237</v>
           </cell>
           <cell r="D12">
-            <v>7772</v>
+            <v>2237</v>
           </cell>
           <cell r="E12" t="str">
-            <v>TEKNOLOGI PENDIDIKAN (S2)</v>
+            <v>PENDIDIKAN PROFESI GURU</v>
           </cell>
           <cell r="F12" t="str">
-            <v>TEKNOLOGI PENDIDIKAN (S2)</v>
+            <v>PENDIDIKAN PROFESI GURU</v>
           </cell>
           <cell r="G12" t="str">
-            <v>S2</v>
+            <v>PR</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>7773</v>
+            <v>10708</v>
           </cell>
           <cell r="C13">
-            <v>7773</v>
+            <v>2280</v>
           </cell>
           <cell r="D13">
-            <v>7773</v>
+            <v>2280</v>
           </cell>
           <cell r="E13" t="str">
-            <v>HUKUM (S2)</v>
+            <v>PENDIDIKAN FISIKA</v>
           </cell>
           <cell r="F13" t="str">
-            <v>HUKUM (S2)</v>
+            <v>PENDIDIKAN FISIKA</v>
           </cell>
           <cell r="G13" t="str">
-            <v>S2</v>
+            <v>S1</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>7774</v>
+            <v>20724</v>
           </cell>
           <cell r="C14">
-            <v>7774</v>
+            <v>2281</v>
           </cell>
           <cell r="D14">
-            <v>7774</v>
+            <v>2281</v>
           </cell>
           <cell r="E14" t="str">
-            <v>MAGISTER AKUNTANSI</v>
+            <v>PENDIDIKAN IPA</v>
           </cell>
           <cell r="F14" t="str">
-            <v>MAGISTER AKUNTANSI</v>
+            <v>PENDIDIKAN IPA</v>
           </cell>
           <cell r="G14" t="str">
-            <v>S2</v>
+            <v>S1</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15">
-            <v>7775</v>
+            <v>10709</v>
           </cell>
           <cell r="C15">
-            <v>7775</v>
+            <v>2282</v>
           </cell>
           <cell r="D15">
-            <v>7775</v>
+            <v>2282</v>
           </cell>
           <cell r="E15" t="str">
-            <v>MAGISTER ADMINISTRASI PUBLIK</v>
+            <v>PENDIDIKAN KIMIA</v>
           </cell>
           <cell r="F15" t="str">
-            <v>MAGISTER ADMINISTRASI PUBLIK</v>
+            <v>PENDIDIKAN KIMIA</v>
           </cell>
           <cell r="G15" t="str">
-            <v>S2</v>
+            <v>S1</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16">
-            <v>7776</v>
+            <v>10701</v>
           </cell>
           <cell r="C16">
-            <v>7776</v>
+            <v>2283</v>
           </cell>
           <cell r="D16">
-            <v>7776</v>
+            <v>2283</v>
           </cell>
           <cell r="E16" t="str">
-            <v>MAGISTER MANAJEMEN</v>
+            <v>PENDIDIKAN VOKASIONAL TEKNIK ELEKTRO</v>
           </cell>
           <cell r="F16" t="str">
-            <v>MAGISTER MANAJEMEN</v>
+            <v>PENDIDIKAN VOKASIONAL TEKNIK ELEKTRO</v>
           </cell>
           <cell r="G16" t="str">
-            <v>S2</v>
+            <v>S1</v>
           </cell>
         </row>
         <row r="17">
           <cell r="B17">
-            <v>7777</v>
+            <v>10702</v>
           </cell>
           <cell r="C17">
-            <v>7777</v>
+            <v>2284</v>
           </cell>
           <cell r="D17">
-            <v>7777</v>
+            <v>2284</v>
           </cell>
           <cell r="E17" t="str">
-            <v>PENDIDIKAN BAHASA INGGRIS</v>
+            <v>PENDIDIKAN VOKASIONAL TEKNIK MESIN</v>
           </cell>
           <cell r="F17" t="str">
-            <v>PENDIDIKAN BAHASA INGGRIS</v>
+            <v>PENDIDIKAN VOKASIONAL TEKNIK MESIN</v>
           </cell>
           <cell r="G17" t="str">
-            <v>S2</v>
+            <v>S1</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>7778</v>
+            <v>20712</v>
           </cell>
           <cell r="C18">
-            <v>7778</v>
+            <v>2285</v>
           </cell>
           <cell r="D18">
-            <v>7778</v>
+            <v>2285</v>
           </cell>
           <cell r="E18" t="str">
-            <v>PENDIDIKAN MATEMATIKA S2</v>
+            <v>BIMBINGAN DAN KONSELING</v>
           </cell>
           <cell r="F18" t="str">
-            <v>PENDIDIKAN MATEMATIKA S2</v>
+            <v>BIMBINGAN DAN KONSELING</v>
           </cell>
           <cell r="G18" t="str">
-            <v>S2</v>
+            <v>S1</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19">
-            <v>7779</v>
+            <v>20701</v>
           </cell>
           <cell r="C19">
-            <v>7779</v>
+            <v>2286</v>
           </cell>
           <cell r="D19">
-            <v>7779</v>
+            <v>2286</v>
           </cell>
           <cell r="E19" t="str">
-            <v>ILMU PERTANIAN</v>
+            <v>PENDIDIKAN PANCASILA DAN KEWARGANEGARAAN</v>
           </cell>
           <cell r="F19" t="str">
-            <v>ILMU PERTANIAN</v>
+            <v>PENDIDIKAN PANCASILA DAN KEWARGANEGARAAN</v>
           </cell>
           <cell r="G19" t="str">
-            <v>S2</v>
+            <v>S1</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20">
-            <v>7780</v>
+            <v>20709</v>
           </cell>
           <cell r="C20">
-            <v>7780</v>
+            <v>2287</v>
           </cell>
           <cell r="D20">
-            <v>7780</v>
+            <v>2287</v>
           </cell>
           <cell r="E20" t="str">
-            <v>TEKNIK KIMIA (S2)</v>
+            <v>PENDIDIKAN KHUSUS</v>
           </cell>
           <cell r="F20" t="str">
-            <v>TEKNIK KIMIA (S2)</v>
+            <v>PENDIDIKAN KHUSUS</v>
           </cell>
           <cell r="G20" t="str">
-            <v>S2</v>
+            <v>S1</v>
           </cell>
         </row>
         <row r="21">
           <cell r="B21">
-            <v>7781</v>
+            <v>20702</v>
           </cell>
           <cell r="C21">
-            <v>7781</v>
+            <v>2288</v>
           </cell>
           <cell r="D21">
-            <v>7781</v>
+            <v>2288</v>
           </cell>
           <cell r="E21" t="str">
-            <v>ILMU KOMUNIKASI (S2)</v>
+            <v>PENDIDIKAN SEJARAH</v>
           </cell>
           <cell r="F21" t="str">
-            <v>ILMU KOMUNIKASI (S2)</v>
+            <v>PENDIDIKAN SEJARAH</v>
           </cell>
           <cell r="G21" t="str">
-            <v>S2</v>
+            <v>S1</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22">
-            <v>7782</v>
+            <v>20716</v>
           </cell>
           <cell r="C22">
-            <v>7782</v>
+            <v>2289</v>
           </cell>
           <cell r="D22">
-            <v>7782</v>
+            <v>2289</v>
           </cell>
           <cell r="E22" t="str">
-            <v>PENDIDIKAN (S3)</v>
+            <v>PENDIDIKAN SENI PERTUNJUKAN</v>
           </cell>
           <cell r="F22" t="str">
-            <v>PENDIDIKAN - S3</v>
+            <v>PENDIDIKAN SENI PERTUNJUKAN</v>
           </cell>
           <cell r="G22" t="str">
-            <v>S3</v>
+            <v>S1</v>
           </cell>
         </row>
         <row r="23">
           <cell r="B23">
-            <v>7783</v>
+            <v>20723</v>
           </cell>
           <cell r="C23">
-            <v>7783</v>
+            <v>2290</v>
           </cell>
           <cell r="D23">
-            <v>7783</v>
+            <v>2290</v>
           </cell>
           <cell r="E23" t="str">
-            <v>ILMU AKUNTANSI PROGRAM DOKTOR</v>
+            <v>PENDIDIKAN SOSIOLOGI</v>
           </cell>
           <cell r="F23" t="str">
-            <v>ILMU AKUNTANSI PROGRAM DOKTOR ( S3 )</v>
+            <v>PENDIDIKAN SOSIOLOGI</v>
           </cell>
           <cell r="G23" t="str">
-            <v>S3</v>
+            <v>S1</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24">
-            <v>7784</v>
+            <v>10802</v>
           </cell>
           <cell r="C24">
-            <v>7784</v>
+            <v>3301</v>
           </cell>
           <cell r="D24">
-            <v>7784</v>
+            <v>3301</v>
           </cell>
           <cell r="E24" t="str">
-            <v>PENDIDIKAN DASAR</v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="F24" t="str">
-            <v>PENDIDIKAN DASAR</v>
+            <v>INFORMATIKA</v>
           </cell>
           <cell r="G24" t="str">
-            <v>S2</v>
+            <v>D3</v>
           </cell>
         </row>
         <row r="25">
           <cell r="B25">
-            <v>7785</v>
+            <v>10202</v>
           </cell>
           <cell r="C25">
-            <v>7785</v>
+            <v>3331</v>
           </cell>
           <cell r="D25">
-            <v>7785</v>
+            <v>3331</v>
           </cell>
           <cell r="E25" t="str">
-            <v>ILMU PERTANIAN (S3)</v>
+            <v>TEKNIK MESIN</v>
           </cell>
           <cell r="F25" t="str">
-            <v>ILMU PERTANIAN</v>
+            <v>TEKNIK MESIN</v>
           </cell>
           <cell r="G25" t="str">
-            <v>S3</v>
+            <v>S1</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26">
-            <v>7786</v>
+            <v>10201</v>
           </cell>
           <cell r="C26">
-            <v>7786</v>
+            <v>3332</v>
           </cell>
           <cell r="D26">
-            <v>7786</v>
+            <v>3332</v>
           </cell>
           <cell r="E26" t="str">
-            <v>MAGISTER EKONOMI</v>
+            <v>TEKNIK ELEKTRO</v>
           </cell>
           <cell r="F26" t="str">
-            <v>MAGISTER EKONOMI</v>
+            <v>TEKNIK ELEKTRO</v>
           </cell>
           <cell r="G26" t="str">
-            <v>S2</v>
+            <v>S1</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27">
-            <v>7787</v>
+            <v>10207</v>
           </cell>
           <cell r="C27">
-            <v>7787</v>
+            <v>3333</v>
           </cell>
           <cell r="D27">
-            <v>7787</v>
+            <v>3333</v>
           </cell>
           <cell r="E27" t="str">
-            <v>TEKNIK INDUSTRI DAN MANAJEMEN</v>
+            <v>TEKNIK INDUSTRI</v>
           </cell>
           <cell r="F27" t="str">
-            <v>TEKNIK INDUSTRI DAN MANAJEMEN</v>
+            <v>TEKNIK INDUSTRI</v>
           </cell>
           <cell r="G27" t="str">
-            <v>S2</v>
+            <v>S1</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28">
-            <v>7788</v>
+            <v>10208</v>
           </cell>
           <cell r="C28">
-            <v>7788</v>
+            <v>3334</v>
           </cell>
           <cell r="D28">
-            <v>7788</v>
+            <v>3334</v>
           </cell>
           <cell r="E28" t="str">
-            <v>PENDIDIKAN VOKASI KETEKNIKAN</v>
+            <v>TEKNIK METALURGI</v>
           </cell>
           <cell r="F28" t="str">
-            <v>PENDIDIKAN VOKASI KETEKNIKAN</v>
+            <v>TEKNIK METALURGI</v>
           </cell>
           <cell r="G28" t="str">
-            <v>S2</v>
+            <v>S1</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29">
-            <v>7789</v>
+            <v>10205</v>
           </cell>
           <cell r="C29">
-            <v>7789</v>
+            <v>3335</v>
           </cell>
           <cell r="D29">
-            <v>7789</v>
+            <v>3335</v>
           </cell>
           <cell r="E29" t="str">
-            <v>STUDI LINGKUNGAN</v>
+            <v>TEKNIK KIMIA</v>
           </cell>
           <cell r="F29" t="str">
-            <v>STUDI LINGKUNGAN</v>
+            <v>TEKNIK KIMIA</v>
           </cell>
           <cell r="G29" t="str">
-            <v>S2</v>
+            <v>S1</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30">
-            <v>8831</v>
+            <v>10203</v>
           </cell>
           <cell r="C30">
-            <v>8831</v>
+            <v>3336</v>
           </cell>
           <cell r="D30">
-            <v>8831</v>
+            <v>3336</v>
           </cell>
           <cell r="E30" t="str">
-            <v>PENDIDIKAN PROFESI DOKTER</v>
+            <v>TEKNIK SIPIL</v>
           </cell>
           <cell r="F30" t="str">
-            <v>PEDIDIKAN PROFESI DOKTER</v>
+            <v>TEKNIK SIPIL</v>
           </cell>
           <cell r="G30" t="str">
-            <v>PR</v>
+            <v>S1</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31">
-            <v>8881</v>
+            <v>3337</v>
           </cell>
           <cell r="C31">
-            <v>8881</v>
+            <v>3337</v>
           </cell>
           <cell r="D31">
-            <v>8881</v>
+            <v>3337</v>
           </cell>
           <cell r="E31" t="str">
-            <v>KEDOKTERAN</v>
+            <v>INFORMATIKA</v>
           </cell>
           <cell r="F31" t="str">
-            <v>KEDOKTERAN</v>
+            <v>INFORMATIKA</v>
           </cell>
           <cell r="G31" t="str">
             <v>S1</v>
@@ -794,19 +794,19 @@
         </row>
         <row r="32">
           <cell r="B32">
-            <v>8882</v>
+            <v>3338</v>
           </cell>
           <cell r="C32">
-            <v>8882</v>
+            <v>3338</v>
           </cell>
           <cell r="D32">
-            <v>8882</v>
+            <v>3338</v>
           </cell>
           <cell r="E32" t="str">
-            <v>GIZI</v>
+            <v>STATISTIKA</v>
           </cell>
           <cell r="F32" t="str">
-            <v>GIZI</v>
+            <v>STATISTIKA</v>
           </cell>
           <cell r="G32" t="str">
             <v>S1</v>
@@ -814,19 +814,19 @@
         </row>
         <row r="33">
           <cell r="B33">
-            <v>8883</v>
+            <v>10404</v>
           </cell>
           <cell r="C33">
-            <v>8883</v>
+            <v>4441</v>
           </cell>
           <cell r="D33">
-            <v>8883</v>
+            <v>4441</v>
           </cell>
           <cell r="E33" t="str">
-            <v>ILMU KEOLAHRAGAAN</v>
+            <v>AGRIBISNIS</v>
           </cell>
           <cell r="F33" t="str">
-            <v>ILMU KEOLAHRAGAAN</v>
+            <v>SOSIAL EKONOMI PERTANIAN</v>
           </cell>
           <cell r="G33" t="str">
             <v>S1</v>
@@ -834,19 +834,19 @@
         </row>
         <row r="34">
           <cell r="B34">
-            <v>8884</v>
+            <v>10407</v>
           </cell>
           <cell r="C34">
-            <v>8884</v>
+            <v>4442</v>
           </cell>
           <cell r="D34">
-            <v>8884</v>
+            <v>4442</v>
           </cell>
           <cell r="E34" t="str">
-            <v>KEPERAWATAN</v>
+            <v>AGROEKOTEKNOLOGI</v>
           </cell>
           <cell r="F34" t="str">
-            <v>KEPERAWATAN</v>
+            <v>AGRONOMI</v>
           </cell>
           <cell r="G34" t="str">
             <v>S1</v>
@@ -854,19 +854,19 @@
         </row>
         <row r="35">
           <cell r="B35">
-            <v>10201</v>
+            <v>10463</v>
           </cell>
           <cell r="C35">
-            <v>3332</v>
+            <v>4443</v>
           </cell>
           <cell r="D35">
-            <v>3332</v>
+            <v>4443</v>
           </cell>
           <cell r="E35" t="str">
-            <v>TEKNIK ELEKTRO</v>
+            <v>ILMU PERIKANAN</v>
           </cell>
           <cell r="F35" t="str">
-            <v>TEKNIK ELEKTRO</v>
+            <v>ILMU PERIKANAN</v>
           </cell>
           <cell r="G35" t="str">
             <v>S1</v>
@@ -874,19 +874,19 @@
         </row>
         <row r="36">
           <cell r="B36">
-            <v>10202</v>
+            <v>4444</v>
           </cell>
           <cell r="C36">
-            <v>3331</v>
+            <v>4444</v>
           </cell>
           <cell r="D36">
-            <v>3331</v>
+            <v>4444</v>
           </cell>
           <cell r="E36" t="str">
-            <v>TEKNIK MESIN</v>
+            <v>TEKNOLOGI PANGAN</v>
           </cell>
           <cell r="F36" t="str">
-            <v>TEKNIK MESIN</v>
+            <v>TEKNOLOGI PANGAN</v>
           </cell>
           <cell r="G36" t="str">
             <v>S1</v>
@@ -894,19 +894,19 @@
         </row>
         <row r="37">
           <cell r="B37">
-            <v>10203</v>
+            <v>4445</v>
           </cell>
           <cell r="C37">
-            <v>3336</v>
+            <v>4445</v>
           </cell>
           <cell r="D37">
-            <v>3336</v>
+            <v>4445</v>
           </cell>
           <cell r="E37" t="str">
-            <v>TEKNIK SIPIL</v>
+            <v>ILMU KELAUTAN</v>
           </cell>
           <cell r="F37" t="str">
-            <v>TEKNIK SIPIL</v>
+            <v>ILMU KELAUTAN</v>
           </cell>
           <cell r="G37" t="str">
             <v>S1</v>
@@ -914,19 +914,19 @@
         </row>
         <row r="38">
           <cell r="B38">
-            <v>10205</v>
+            <v>4446</v>
           </cell>
           <cell r="C38">
-            <v>3335</v>
+            <v>4446</v>
           </cell>
           <cell r="D38">
-            <v>3335</v>
+            <v>4446</v>
           </cell>
           <cell r="E38" t="str">
-            <v>TEKNIK KIMIA</v>
+            <v>PETERNAKAN</v>
           </cell>
           <cell r="F38" t="str">
-            <v>TEKNIK KIMIA</v>
+            <v>PETERNAKAN</v>
           </cell>
           <cell r="G38" t="str">
             <v>S1</v>
@@ -934,99 +934,99 @@
         </row>
         <row r="39">
           <cell r="B39">
-            <v>10207</v>
+            <v>201011</v>
           </cell>
           <cell r="C39">
-            <v>3333</v>
+            <v>5501</v>
           </cell>
           <cell r="D39">
-            <v>3333</v>
+            <v>5501</v>
           </cell>
           <cell r="E39" t="str">
-            <v>TEKNIK INDUSTRI</v>
+            <v>AKUNTANSI D3</v>
           </cell>
           <cell r="F39" t="str">
-            <v>TEKNIK INDUSTRI</v>
+            <v>AKUNTANSI</v>
           </cell>
           <cell r="G39" t="str">
-            <v>S1</v>
+            <v>D3</v>
           </cell>
         </row>
         <row r="40">
           <cell r="B40">
-            <v>10208</v>
+            <v>20211</v>
           </cell>
           <cell r="C40">
-            <v>3334</v>
+            <v>5502</v>
           </cell>
           <cell r="D40">
-            <v>3334</v>
+            <v>5502</v>
           </cell>
           <cell r="E40" t="str">
-            <v>TEKNIK METALURGI</v>
+            <v>MANAJEMEN PEMASARAN (D3)</v>
           </cell>
           <cell r="F40" t="str">
-            <v>TEKNIK METALURGI</v>
+            <v>MANAJEMEN PEMASARAN (D3)</v>
           </cell>
           <cell r="G40" t="str">
-            <v>S1</v>
+            <v>D3</v>
           </cell>
         </row>
         <row r="41">
           <cell r="B41">
-            <v>10404</v>
+            <v>21010</v>
           </cell>
           <cell r="C41">
-            <v>4441</v>
+            <v>5503</v>
           </cell>
           <cell r="D41">
-            <v>4441</v>
+            <v>5503</v>
           </cell>
           <cell r="E41" t="str">
-            <v>AGRIBISNIS</v>
+            <v>ADMINISTRASI PAJAK</v>
           </cell>
           <cell r="F41" t="str">
-            <v>SOSIAL EKONOMI PERTANIAN</v>
+            <v>ADMINISTRASI PAJAK</v>
           </cell>
           <cell r="G41" t="str">
-            <v>S1</v>
+            <v>D3</v>
           </cell>
         </row>
         <row r="42">
           <cell r="B42">
-            <v>20707</v>
+            <v>20107</v>
           </cell>
           <cell r="C42">
-            <v>2228</v>
+            <v>5504</v>
           </cell>
           <cell r="D42">
-            <v>2228</v>
+            <v>5504</v>
           </cell>
           <cell r="E42" t="str">
-            <v>PENDIDIKAN GURU PENDIDIKAN ANAK USIA DINI</v>
+            <v>PERBANKAN DAN KEUANGAN</v>
           </cell>
           <cell r="F42" t="str">
-            <v>PENDIDIKAN ANAK USIA DINI</v>
+            <v>PERBANKAN DAN KEUANGAN</v>
           </cell>
           <cell r="G42" t="str">
-            <v>S1</v>
+            <v>D3</v>
           </cell>
         </row>
         <row r="43">
           <cell r="B43">
-            <v>20708</v>
+            <v>20102</v>
           </cell>
           <cell r="C43">
-            <v>2221</v>
+            <v>5551</v>
           </cell>
           <cell r="D43">
-            <v>2221</v>
+            <v>5551</v>
           </cell>
           <cell r="E43" t="str">
-            <v>PENDIDIKAN NON FORMAL</v>
+            <v>MANAJEMEN</v>
           </cell>
           <cell r="F43" t="str">
-            <v>PENDIDIKAN NON FORMAL</v>
+            <v>MANAJEMEN</v>
           </cell>
           <cell r="G43" t="str">
             <v>S1</v>
@@ -1034,19 +1034,19 @@
         </row>
         <row r="44">
           <cell r="B44">
-            <v>20709</v>
+            <v>20103</v>
           </cell>
           <cell r="C44">
-            <v>2287</v>
+            <v>5552</v>
           </cell>
           <cell r="D44">
-            <v>2287</v>
+            <v>5552</v>
           </cell>
           <cell r="E44" t="str">
-            <v>PENDIDIKAN KHUSUS</v>
+            <v>AKUNTANSI</v>
           </cell>
           <cell r="F44" t="str">
-            <v>PENDIDIKAN KHUSUS</v>
+            <v>AKUNTANSI</v>
           </cell>
           <cell r="G44" t="str">
             <v>S1</v>
@@ -1054,19 +1054,19 @@
         </row>
         <row r="45">
           <cell r="B45">
-            <v>20711</v>
+            <v>20101</v>
           </cell>
           <cell r="C45">
-            <v>2227</v>
+            <v>5553</v>
           </cell>
           <cell r="D45">
-            <v>2227</v>
+            <v>5553</v>
           </cell>
           <cell r="E45" t="str">
-            <v>PENDIDIKAN GURU SEKOLAH DASAR</v>
+            <v>ILMU EKONOMI PEMBANGUNAN</v>
           </cell>
           <cell r="F45" t="str">
-            <v>PENDIDIKAN GURU SEKOLAH DASAR</v>
+            <v>EKONOMI PEMBANGUNAN</v>
           </cell>
           <cell r="G45" t="str">
             <v>S1</v>
@@ -1074,19 +1074,19 @@
         </row>
         <row r="46">
           <cell r="B46">
-            <v>20712</v>
+            <v>5554</v>
           </cell>
           <cell r="C46">
-            <v>2285</v>
+            <v>5554</v>
           </cell>
           <cell r="D46">
-            <v>2285</v>
+            <v>5554</v>
           </cell>
           <cell r="E46" t="str">
-            <v>BIMBINGAN DAN KONSELING</v>
+            <v>EKONOMI SYARIAH</v>
           </cell>
           <cell r="F46" t="str">
-            <v>BIMBINGAN DAN KONSELING</v>
+            <v>EKONOMI SYARIAH</v>
           </cell>
           <cell r="G46" t="str">
             <v>S1</v>
@@ -1094,19 +1094,19 @@
         </row>
         <row r="47">
           <cell r="B47">
-            <v>20716</v>
+            <v>20201</v>
           </cell>
           <cell r="C47">
-            <v>2289</v>
+            <v>6661</v>
           </cell>
           <cell r="D47">
-            <v>2289</v>
+            <v>6661</v>
           </cell>
           <cell r="E47" t="str">
-            <v>PENDIDIKAN SENI PERTUNJUKAN</v>
+            <v>ADMINISTRASI PUBLIK</v>
           </cell>
           <cell r="F47" t="str">
-            <v>PENDIDIKAN SENI PERTUNJUKAN</v>
+            <v>ADMINISTRASI PUBLIK</v>
           </cell>
           <cell r="G47" t="str">
             <v>S1</v>
@@ -1114,19 +1114,19 @@
         </row>
         <row r="48">
           <cell r="B48">
-            <v>20717</v>
+            <v>20220</v>
           </cell>
           <cell r="C48">
-            <v>2222</v>
+            <v>6662</v>
           </cell>
           <cell r="D48">
-            <v>2222</v>
+            <v>6662</v>
           </cell>
           <cell r="E48" t="str">
-            <v>PENDIDIKAN BAHASA INDONESIA (S1)</v>
+            <v>ILMU KOMUNIKASI</v>
           </cell>
           <cell r="F48" t="str">
-            <v>PENDIDIKAN BAHASA INDONESIA</v>
+            <v>ILMU KOMUNIKASI</v>
           </cell>
           <cell r="G48" t="str">
             <v>S1</v>
@@ -1134,19 +1134,19 @@
         </row>
         <row r="49">
           <cell r="B49">
-            <v>20718</v>
+            <v>20204</v>
           </cell>
           <cell r="C49">
-            <v>2223</v>
+            <v>6670</v>
           </cell>
           <cell r="D49">
-            <v>2223</v>
+            <v>6670</v>
           </cell>
           <cell r="E49" t="str">
-            <v>PENDIDIKAN BAHASA INGGRIS</v>
+            <v>ILMU PEMERINTAHAN</v>
           </cell>
           <cell r="F49" t="str">
-            <v>PENDIDIKAN BAHASA INGGRIS</v>
+            <v>ILMU PEMERINTAHAN</v>
           </cell>
           <cell r="G49" t="str">
             <v>S1</v>
@@ -1154,439 +1154,439 @@
         </row>
         <row r="50">
           <cell r="B50">
-            <v>20723</v>
+            <v>7771</v>
           </cell>
           <cell r="C50">
-            <v>2290</v>
+            <v>7771</v>
           </cell>
           <cell r="D50">
-            <v>2290</v>
+            <v>7771</v>
           </cell>
           <cell r="E50" t="str">
-            <v>PENDIDIKAN SOSIOLOGI</v>
+            <v>PENDIDIKAN BAHASA INDONESIA (S2)</v>
           </cell>
           <cell r="F50" t="str">
-            <v>PENDIDIKAN SOSIOLOGI</v>
+            <v>PENDIDIKAN BAHASA INDONESIA</v>
           </cell>
           <cell r="G50" t="str">
-            <v>S1</v>
+            <v>S2</v>
           </cell>
         </row>
         <row r="51">
           <cell r="B51">
-            <v>20724</v>
+            <v>7772</v>
           </cell>
           <cell r="C51">
-            <v>2281</v>
+            <v>7772</v>
           </cell>
           <cell r="D51">
-            <v>2281</v>
+            <v>7772</v>
           </cell>
           <cell r="E51" t="str">
-            <v>PENDIDIKAN IPA</v>
+            <v>TEKNOLOGI PENDIDIKAN (S2)</v>
           </cell>
           <cell r="F51" t="str">
-            <v>PENDIDIKAN IPA</v>
+            <v>TEKNOLOGI PENDIDIKAN (S2)</v>
           </cell>
           <cell r="G51" t="str">
-            <v>S1</v>
+            <v>S2</v>
           </cell>
         </row>
         <row r="52">
           <cell r="B52">
-            <v>20725</v>
+            <v>7773</v>
           </cell>
           <cell r="C52">
-            <v>2226</v>
+            <v>7773</v>
           </cell>
           <cell r="D52">
-            <v>2226</v>
+            <v>7773</v>
           </cell>
           <cell r="E52" t="str">
-            <v>PENDIDIKAN GURU TAMAN KANAK-KANAK</v>
+            <v>HUKUM (S2)</v>
           </cell>
           <cell r="F52" t="str">
-            <v>PENDIDIKAN GURU TAMAN KANAK-KANAK</v>
+            <v>HUKUM (S2)</v>
           </cell>
           <cell r="G52" t="str">
-            <v>S1</v>
+            <v>S2</v>
           </cell>
         </row>
         <row r="53">
           <cell r="B53">
-            <v>21010</v>
+            <v>7774</v>
           </cell>
           <cell r="C53">
-            <v>5503</v>
+            <v>7774</v>
           </cell>
           <cell r="D53">
-            <v>5503</v>
+            <v>7774</v>
           </cell>
           <cell r="E53" t="str">
-            <v>ADMINISTRASI PAJAK</v>
+            <v>MAGISTER AKUNTANSI</v>
           </cell>
           <cell r="F53" t="str">
-            <v>ADMINISTRASI PAJAK</v>
+            <v>MAGISTER AKUNTANSI</v>
           </cell>
           <cell r="G53" t="str">
-            <v>D3</v>
+            <v>S2</v>
           </cell>
         </row>
         <row r="54">
           <cell r="B54">
-            <v>201011</v>
+            <v>7775</v>
           </cell>
           <cell r="C54">
-            <v>5501</v>
+            <v>7775</v>
           </cell>
           <cell r="D54">
-            <v>5501</v>
+            <v>7775</v>
           </cell>
           <cell r="E54" t="str">
-            <v>AKUNTANSI D3</v>
+            <v>MAGISTER ADMINISTRASI PUBLIK</v>
           </cell>
           <cell r="F54" t="str">
-            <v>AKUNTANSI</v>
+            <v>MAGISTER ADMINISTRASI PUBLIK</v>
           </cell>
           <cell r="G54" t="str">
-            <v>D3</v>
+            <v>S2</v>
           </cell>
         </row>
         <row r="55">
           <cell r="B55">
-            <v>223701</v>
+            <v>7776</v>
           </cell>
           <cell r="C55">
-            <v>223701</v>
+            <v>7776</v>
           </cell>
           <cell r="D55">
-            <v>223701</v>
+            <v>7776</v>
           </cell>
           <cell r="E55" t="str">
-            <v>PPG FISIKA</v>
+            <v>MAGISTER MANAJEMEN</v>
           </cell>
           <cell r="F55" t="str">
-            <v>PENDIDIKAN PROFESI GURU</v>
+            <v>MAGISTER MANAJEMEN</v>
           </cell>
           <cell r="G55" t="str">
-            <v>PR</v>
+            <v>S2</v>
           </cell>
         </row>
         <row r="56">
           <cell r="B56">
-            <v>223702</v>
+            <v>7777</v>
           </cell>
           <cell r="C56">
-            <v>223702</v>
+            <v>7777</v>
           </cell>
           <cell r="D56">
-            <v>223702</v>
+            <v>7777</v>
           </cell>
           <cell r="E56" t="str">
-            <v>PPG KIMIA</v>
+            <v>PENDIDIKAN BAHASA INGGRIS</v>
           </cell>
           <cell r="F56" t="str">
-            <v>PENDIDIKAN PROFESI GURU</v>
+            <v>PENDIDIKAN BAHASA INGGRIS</v>
           </cell>
           <cell r="G56" t="str">
-            <v>PR</v>
+            <v>S2</v>
           </cell>
         </row>
         <row r="57">
           <cell r="B57">
-            <v>223703</v>
+            <v>7778</v>
           </cell>
           <cell r="C57">
-            <v>223703</v>
+            <v>7778</v>
           </cell>
           <cell r="D57">
-            <v>223703</v>
+            <v>7778</v>
           </cell>
           <cell r="E57" t="str">
-            <v>PPG BAHASA INDONESIA</v>
+            <v>PENDIDIKAN MATEMATIKA S2</v>
           </cell>
           <cell r="F57" t="str">
-            <v>PENDIDIKAN PROFESI GURU</v>
+            <v>PENDIDIKAN MATEMATIKA S2</v>
           </cell>
           <cell r="G57" t="str">
-            <v>PR</v>
+            <v>S2</v>
           </cell>
         </row>
         <row r="58">
           <cell r="B58">
-            <v>223704</v>
+            <v>7779</v>
           </cell>
           <cell r="C58">
-            <v>223704</v>
+            <v>7779</v>
           </cell>
           <cell r="D58">
-            <v>223704</v>
+            <v>7779</v>
           </cell>
           <cell r="E58" t="str">
-            <v>PPG BAHASA INGGRIS</v>
+            <v>ILMU PERTANIAN</v>
           </cell>
           <cell r="F58" t="str">
-            <v>PENDIDIKAN PROFESI GURU</v>
+            <v>ILMU PERTANIAN</v>
           </cell>
           <cell r="G58" t="str">
-            <v>PR</v>
+            <v>S2</v>
           </cell>
         </row>
         <row r="59">
           <cell r="B59">
-            <v>223705</v>
+            <v>7780</v>
           </cell>
           <cell r="C59">
-            <v>223705</v>
+            <v>7780</v>
           </cell>
           <cell r="D59">
-            <v>223705</v>
+            <v>7780</v>
           </cell>
           <cell r="E59" t="str">
-            <v>PPG BIOLOGI</v>
+            <v>TEKNIK KIMIA (S2)</v>
           </cell>
           <cell r="F59" t="str">
-            <v>PENDIDIKAN PROFESI GURU</v>
+            <v>TEKNIK KIMIA (S2)</v>
           </cell>
           <cell r="G59" t="str">
-            <v>PR</v>
+            <v>S2</v>
           </cell>
         </row>
         <row r="60">
           <cell r="B60">
-            <v>223706</v>
+            <v>7781</v>
           </cell>
           <cell r="C60">
-            <v>223706</v>
+            <v>7781</v>
           </cell>
           <cell r="D60">
-            <v>223706</v>
+            <v>7781</v>
           </cell>
           <cell r="E60" t="str">
-            <v>PPG MATEMATIKA</v>
+            <v>ILMU KOMUNIKASI (S2)</v>
           </cell>
           <cell r="F60" t="str">
-            <v>PENDIDIKAN PROFESI GURU</v>
+            <v>ILMU KOMUNIKASI (S2)</v>
           </cell>
           <cell r="G60" t="str">
-            <v>PR</v>
+            <v>S2</v>
           </cell>
         </row>
         <row r="61">
           <cell r="B61">
-            <v>223707</v>
+            <v>7782</v>
           </cell>
           <cell r="C61">
-            <v>223707</v>
+            <v>7782</v>
           </cell>
           <cell r="D61">
-            <v>223707</v>
+            <v>7782</v>
           </cell>
           <cell r="E61" t="str">
-            <v>PPG GURU SEKOLAH DASAR</v>
+            <v>PENDIDIKAN (S3)</v>
           </cell>
           <cell r="F61" t="str">
-            <v>PENDIDIKAN PROFESI GURU</v>
+            <v>PENDIDIKAN - S3</v>
           </cell>
           <cell r="G61" t="str">
-            <v>PR</v>
+            <v>S3</v>
           </cell>
         </row>
         <row r="62">
           <cell r="B62">
-            <v>223709</v>
+            <v>7783</v>
           </cell>
           <cell r="C62">
-            <v>223709</v>
+            <v>7783</v>
           </cell>
           <cell r="D62">
-            <v>223709</v>
+            <v>7783</v>
           </cell>
           <cell r="E62" t="str">
-            <v>PPG IPA</v>
+            <v>ILMU AKUNTANSI PROGRAM DOKTOR</v>
           </cell>
           <cell r="F62" t="str">
-            <v>PENDIDIKAN PROFESI GURU</v>
+            <v>ILMU AKUNTANSI PROGRAM DOKTOR ( S3 )</v>
           </cell>
           <cell r="G62" t="str">
-            <v>PR</v>
+            <v>S3</v>
           </cell>
         </row>
         <row r="63">
           <cell r="B63">
-            <v>223710</v>
+            <v>7784</v>
           </cell>
           <cell r="C63">
-            <v>223710</v>
+            <v>7784</v>
           </cell>
           <cell r="D63">
-            <v>223710</v>
+            <v>7784</v>
           </cell>
           <cell r="E63" t="str">
-            <v>PPG PAUD</v>
+            <v>PENDIDIKAN DASAR</v>
           </cell>
           <cell r="F63" t="str">
-            <v>PENDIDIKAN PROFESI GURU</v>
+            <v>PENDIDIKAN DASAR</v>
           </cell>
           <cell r="G63" t="str">
-            <v>PR</v>
+            <v>S2</v>
           </cell>
         </row>
         <row r="64">
           <cell r="B64">
-            <v>223711</v>
+            <v>7785</v>
           </cell>
           <cell r="C64">
-            <v>223711</v>
+            <v>7785</v>
           </cell>
           <cell r="D64">
-            <v>223711</v>
+            <v>7785</v>
           </cell>
           <cell r="E64" t="str">
-            <v>PPG PPKN</v>
+            <v>ILMU PERTANIAN (S3)</v>
           </cell>
           <cell r="F64" t="str">
-            <v>PENDIDIKAN PROFESI GURU</v>
+            <v>ILMU PERTANIAN</v>
           </cell>
           <cell r="G64" t="str">
-            <v>PR</v>
+            <v>S3</v>
           </cell>
         </row>
         <row r="65">
           <cell r="B65">
-            <v>223712</v>
+            <v>7786</v>
           </cell>
           <cell r="C65">
-            <v>223712</v>
+            <v>7786</v>
           </cell>
           <cell r="D65">
-            <v>223712</v>
+            <v>7786</v>
           </cell>
           <cell r="E65" t="str">
-            <v>PPG SEJARAH</v>
+            <v>MAGISTER EKONOMI</v>
           </cell>
           <cell r="F65" t="str">
-            <v>PENDIDIKAN PROFESI GURU</v>
+            <v>MAGISTER EKONOMI</v>
           </cell>
           <cell r="G65" t="str">
-            <v>PR</v>
+            <v>S2</v>
           </cell>
         </row>
         <row r="66">
           <cell r="B66">
-            <v>223713</v>
+            <v>7787</v>
           </cell>
           <cell r="C66">
-            <v>223713</v>
+            <v>7787</v>
           </cell>
           <cell r="D66">
-            <v>223713</v>
+            <v>7787</v>
           </cell>
           <cell r="E66" t="str">
-            <v>PPG SOSIOLOGI</v>
+            <v>TEKNIK INDUSTRI DAN MANAJEMEN</v>
           </cell>
           <cell r="F66" t="str">
-            <v>PENDIDIKAN PROFESI GURU</v>
+            <v>TEKNIK INDUSTRI DAN MANAJEMEN</v>
           </cell>
           <cell r="G66" t="str">
-            <v>PR</v>
+            <v>S2</v>
           </cell>
         </row>
         <row r="67">
           <cell r="B67">
-            <v>223714</v>
+            <v>7788</v>
           </cell>
           <cell r="C67">
-            <v>223714</v>
+            <v>7788</v>
           </cell>
           <cell r="D67">
-            <v>223714</v>
+            <v>7788</v>
           </cell>
           <cell r="E67" t="str">
-            <v>PPG BIMBINGAN DAN KONSELING</v>
+            <v>PENDIDIKAN VOKASI KETEKNIKAN</v>
           </cell>
           <cell r="F67" t="str">
-            <v>PENDIDIKAN PROFESI GURU</v>
+            <v>PENDIDIKAN VOKASI KETEKNIKAN</v>
           </cell>
           <cell r="G67" t="str">
-            <v>PR</v>
+            <v>S2</v>
           </cell>
         </row>
         <row r="68">
           <cell r="B68">
-            <v>10407</v>
+            <v>7789</v>
           </cell>
           <cell r="C68">
-            <v>4442</v>
+            <v>7789</v>
           </cell>
           <cell r="D68">
-            <v>4442</v>
+            <v>7789</v>
           </cell>
           <cell r="E68" t="str">
-            <v>AGROEKOTEKNOLOGI</v>
+            <v>STUDI LINGKUNGAN</v>
           </cell>
           <cell r="F68" t="str">
-            <v>AGRONOMI</v>
+            <v>STUDI LINGKUNGAN</v>
           </cell>
           <cell r="G68" t="str">
-            <v>S1</v>
+            <v>S2</v>
           </cell>
         </row>
         <row r="69">
           <cell r="B69">
-            <v>10463</v>
+            <v>3440</v>
           </cell>
           <cell r="C69">
-            <v>4443</v>
+            <v>8801</v>
           </cell>
           <cell r="D69">
-            <v>4443</v>
+            <v>8801</v>
           </cell>
           <cell r="E69" t="str">
-            <v>ILMU PERIKANAN</v>
+            <v>KEPERAWATAN D3</v>
           </cell>
           <cell r="F69" t="str">
-            <v>ILMU PERIKANAN</v>
+            <v>KEPERAWATAN D3</v>
           </cell>
           <cell r="G69" t="str">
-            <v>S1</v>
+            <v>D3</v>
           </cell>
         </row>
         <row r="70">
           <cell r="B70">
-            <v>10701</v>
+            <v>8831</v>
           </cell>
           <cell r="C70">
-            <v>2283</v>
+            <v>8831</v>
           </cell>
           <cell r="D70">
-            <v>2283</v>
+            <v>8831</v>
           </cell>
           <cell r="E70" t="str">
-            <v>PENDIDIKAN VOKASIONAL TEKNIK ELEKTRO</v>
+            <v>PENDIDIKAN PROFESI DOKTER</v>
           </cell>
           <cell r="F70" t="str">
-            <v>PENDIDIKAN VOKASIONAL TEKNIK ELEKTRO</v>
+            <v>PEDIDIKAN PROFESI DOKTER</v>
           </cell>
           <cell r="G70" t="str">
-            <v>S1</v>
+            <v>PR</v>
           </cell>
         </row>
         <row r="71">
           <cell r="B71">
-            <v>10702</v>
+            <v>8881</v>
           </cell>
           <cell r="C71">
-            <v>2284</v>
+            <v>8881</v>
           </cell>
           <cell r="D71">
-            <v>2284</v>
+            <v>8881</v>
           </cell>
           <cell r="E71" t="str">
-            <v>PENDIDIKAN VOKASIONAL TEKNIK MESIN</v>
+            <v>KEDOKTERAN</v>
           </cell>
           <cell r="F71" t="str">
-            <v>PENDIDIKAN VOKASIONAL TEKNIK MESIN</v>
+            <v>KEDOKTERAN</v>
           </cell>
           <cell r="G71" t="str">
             <v>S1</v>
@@ -1594,19 +1594,19 @@
         </row>
         <row r="72">
           <cell r="B72">
-            <v>10707</v>
+            <v>8882</v>
           </cell>
           <cell r="C72">
-            <v>2225</v>
+            <v>8882</v>
           </cell>
           <cell r="D72">
-            <v>2225</v>
+            <v>8882</v>
           </cell>
           <cell r="E72" t="str">
-            <v>PENDIDIKAN MATEMATIKA</v>
+            <v>GIZI</v>
           </cell>
           <cell r="F72" t="str">
-            <v>PENDIDIKAN MATEMATIKA</v>
+            <v>GIZI</v>
           </cell>
           <cell r="G72" t="str">
             <v>S1</v>
@@ -1614,19 +1614,19 @@
         </row>
         <row r="73">
           <cell r="B73">
-            <v>10708</v>
+            <v>8883</v>
           </cell>
           <cell r="C73">
-            <v>2280</v>
+            <v>8883</v>
           </cell>
           <cell r="D73">
-            <v>2280</v>
+            <v>8883</v>
           </cell>
           <cell r="E73" t="str">
-            <v>PENDIDIKAN FISIKA</v>
+            <v>ILMU KEOLAHRAGAAN</v>
           </cell>
           <cell r="F73" t="str">
-            <v>PENDIDIKAN FISIKA</v>
+            <v>ILMU KEOLAHRAGAAN</v>
           </cell>
           <cell r="G73" t="str">
             <v>S1</v>
@@ -1634,19 +1634,19 @@
         </row>
         <row r="74">
           <cell r="B74">
-            <v>10709</v>
+            <v>8884</v>
           </cell>
           <cell r="C74">
-            <v>2282</v>
+            <v>8884</v>
           </cell>
           <cell r="D74">
-            <v>2282</v>
+            <v>8884</v>
           </cell>
           <cell r="E74" t="str">
-            <v>PENDIDIKAN KIMIA</v>
+            <v>KEPERAWATAN</v>
           </cell>
           <cell r="F74" t="str">
-            <v>PENDIDIKAN KIMIA</v>
+            <v>KEPERAWATAN</v>
           </cell>
           <cell r="G74" t="str">
             <v>S1</v>
@@ -1654,262 +1654,262 @@
         </row>
         <row r="75">
           <cell r="B75">
-            <v>10710</v>
+            <v>223701</v>
           </cell>
           <cell r="C75">
-            <v>2224</v>
+            <v>223701</v>
           </cell>
           <cell r="D75">
-            <v>2224</v>
+            <v>223701</v>
           </cell>
           <cell r="E75" t="str">
-            <v>PENDIDIKAN BIOLOGI</v>
+            <v>PPG FISIKA</v>
           </cell>
           <cell r="F75" t="str">
-            <v>PENDIDIKAN BIOLOGI</v>
+            <v>PENDIDIKAN PROFESI GURU</v>
           </cell>
           <cell r="G75" t="str">
-            <v>S1</v>
+            <v>PR</v>
           </cell>
         </row>
         <row r="76">
           <cell r="B76">
-            <v>10802</v>
+            <v>223702</v>
           </cell>
           <cell r="C76">
-            <v>3301</v>
+            <v>223702</v>
           </cell>
           <cell r="D76">
-            <v>3301</v>
+            <v>223702</v>
           </cell>
           <cell r="E76" t="str">
-            <v>TEKNIK INFORMATIKA</v>
+            <v>PPG KIMIA</v>
           </cell>
           <cell r="F76" t="str">
-            <v>INFORMATIKA</v>
+            <v>PENDIDIKAN PROFESI GURU</v>
           </cell>
           <cell r="G76" t="str">
-            <v>D3</v>
+            <v>PR</v>
           </cell>
         </row>
         <row r="77">
           <cell r="B77">
-            <v>20101</v>
+            <v>223703</v>
           </cell>
           <cell r="C77">
-            <v>5553</v>
+            <v>223703</v>
           </cell>
           <cell r="D77">
-            <v>5553</v>
+            <v>223703</v>
           </cell>
           <cell r="E77" t="str">
-            <v>ILMU EKONOMI PEMBANGUNAN</v>
+            <v>PPG BAHASA INDONESIA</v>
           </cell>
           <cell r="F77" t="str">
-            <v>EKONOMI PEMBANGUNAN</v>
+            <v>PENDIDIKAN PROFESI GURU</v>
           </cell>
           <cell r="G77" t="str">
-            <v>S1</v>
+            <v>PR</v>
           </cell>
         </row>
         <row r="78">
           <cell r="B78">
-            <v>20102</v>
+            <v>223704</v>
           </cell>
           <cell r="C78">
-            <v>5551</v>
+            <v>223704</v>
           </cell>
           <cell r="D78">
-            <v>5551</v>
+            <v>223704</v>
           </cell>
           <cell r="E78" t="str">
-            <v>MANAJEMEN</v>
+            <v>PPG BAHASA INGGRIS</v>
           </cell>
           <cell r="F78" t="str">
-            <v>MANAJEMEN</v>
+            <v>PENDIDIKAN PROFESI GURU</v>
           </cell>
           <cell r="G78" t="str">
-            <v>S1</v>
+            <v>PR</v>
           </cell>
         </row>
         <row r="79">
           <cell r="B79">
-            <v>20103</v>
+            <v>223705</v>
           </cell>
           <cell r="C79">
-            <v>5552</v>
+            <v>223705</v>
           </cell>
           <cell r="D79">
-            <v>5552</v>
+            <v>223705</v>
           </cell>
           <cell r="E79" t="str">
-            <v>AKUNTANSI</v>
+            <v>PPG BIOLOGI</v>
           </cell>
           <cell r="F79" t="str">
-            <v>AKUNTANSI</v>
+            <v>PENDIDIKAN PROFESI GURU</v>
           </cell>
           <cell r="G79" t="str">
-            <v>S1</v>
+            <v>PR</v>
           </cell>
         </row>
         <row r="80">
           <cell r="B80">
-            <v>20107</v>
+            <v>223706</v>
           </cell>
           <cell r="C80">
-            <v>5504</v>
+            <v>223706</v>
           </cell>
           <cell r="D80">
-            <v>5504</v>
+            <v>223706</v>
           </cell>
           <cell r="E80" t="str">
-            <v>PERBANKAN DAN KEUANGAN</v>
+            <v>PPG MATEMATIKA</v>
           </cell>
           <cell r="F80" t="str">
-            <v>PERBANKAN DAN KEUANGAN</v>
+            <v>PENDIDIKAN PROFESI GURU</v>
           </cell>
           <cell r="G80" t="str">
-            <v>D3</v>
+            <v>PR</v>
           </cell>
         </row>
         <row r="81">
           <cell r="B81">
-            <v>20201</v>
+            <v>223707</v>
           </cell>
           <cell r="C81">
-            <v>6661</v>
+            <v>223707</v>
           </cell>
           <cell r="D81">
-            <v>6661</v>
+            <v>223707</v>
           </cell>
           <cell r="E81" t="str">
-            <v>ADMINISTRASI PUBLIK</v>
+            <v>PPG GURU SEKOLAH DASAR</v>
           </cell>
           <cell r="F81" t="str">
-            <v>ADMINISTRASI PUBLIK</v>
+            <v>PENDIDIKAN PROFESI GURU</v>
           </cell>
           <cell r="G81" t="str">
-            <v>S1</v>
+            <v>PR</v>
           </cell>
         </row>
         <row r="82">
           <cell r="B82">
-            <v>20204</v>
+            <v>223709</v>
           </cell>
           <cell r="C82">
-            <v>6670</v>
+            <v>223709</v>
           </cell>
           <cell r="D82">
-            <v>6670</v>
+            <v>223709</v>
           </cell>
           <cell r="E82" t="str">
-            <v>ILMU PEMERINTAHAN</v>
+            <v>PPG IPA</v>
           </cell>
           <cell r="F82" t="str">
-            <v>ILMU PEMERINTAHAN</v>
+            <v>PENDIDIKAN PROFESI GURU</v>
           </cell>
           <cell r="G82" t="str">
-            <v>S1</v>
+            <v>PR</v>
           </cell>
         </row>
         <row r="83">
           <cell r="B83">
-            <v>20211</v>
+            <v>223710</v>
           </cell>
           <cell r="C83">
-            <v>5502</v>
+            <v>223710</v>
           </cell>
           <cell r="D83">
-            <v>5502</v>
+            <v>223710</v>
           </cell>
           <cell r="E83" t="str">
-            <v>MANAJEMEN PEMASARAN (D3)</v>
+            <v>PPG PAUD</v>
           </cell>
           <cell r="F83" t="str">
-            <v>MANAJEMEN PEMASARAN (D3)</v>
+            <v>PENDIDIKAN PROFESI GURU</v>
           </cell>
           <cell r="G83" t="str">
-            <v>D3</v>
+            <v>PR</v>
           </cell>
         </row>
         <row r="84">
           <cell r="B84">
-            <v>20220</v>
+            <v>223711</v>
           </cell>
           <cell r="C84">
-            <v>6662</v>
+            <v>223711</v>
           </cell>
           <cell r="D84">
-            <v>6662</v>
+            <v>223711</v>
           </cell>
           <cell r="E84" t="str">
-            <v>ILMU KOMUNIKASI</v>
+            <v>PPG PPKN</v>
           </cell>
           <cell r="F84" t="str">
-            <v>ILMU KOMUNIKASI</v>
+            <v>PENDIDIKAN PROFESI GURU</v>
           </cell>
           <cell r="G84" t="str">
-            <v>S1</v>
+            <v>PR</v>
           </cell>
         </row>
         <row r="85">
           <cell r="B85">
-            <v>20401</v>
+            <v>223712</v>
           </cell>
           <cell r="C85">
-            <v>1111</v>
+            <v>223712</v>
           </cell>
           <cell r="D85">
-            <v>1111</v>
+            <v>223712</v>
           </cell>
           <cell r="E85" t="str">
-            <v>HUKUM (S1)</v>
+            <v>PPG SEJARAH</v>
           </cell>
           <cell r="F85" t="str">
-            <v>HUKUM (S1)</v>
+            <v>PENDIDIKAN PROFESI GURU</v>
           </cell>
           <cell r="G85" t="str">
-            <v>S1</v>
+            <v>PR</v>
           </cell>
         </row>
         <row r="86">
           <cell r="B86">
-            <v>20701</v>
+            <v>223713</v>
           </cell>
           <cell r="C86">
-            <v>2286</v>
+            <v>223713</v>
           </cell>
           <cell r="D86">
-            <v>2286</v>
+            <v>223713</v>
           </cell>
           <cell r="E86" t="str">
-            <v>PENDIDIKAN PANCASILA DAN KEWARGANEGARAAN</v>
+            <v>PPG SOSIOLOGI</v>
           </cell>
           <cell r="F86" t="str">
-            <v>PENDIDIKAN PANCASILA DAN KEWARGANEGARAAN</v>
+            <v>PENDIDIKAN PROFESI GURU</v>
           </cell>
           <cell r="G86" t="str">
-            <v>S1</v>
+            <v>PR</v>
           </cell>
         </row>
         <row r="87">
           <cell r="B87">
-            <v>20702</v>
+            <v>223714</v>
           </cell>
           <cell r="C87">
-            <v>2288</v>
+            <v>223714</v>
           </cell>
           <cell r="D87">
-            <v>2288</v>
+            <v>223714</v>
           </cell>
           <cell r="E87" t="str">
-            <v>PENDIDIKAN SEJARAH</v>
+            <v>PPG BIMBINGAN DAN KONSELING</v>
           </cell>
           <cell r="F87" t="str">
-            <v>PENDIDIKAN SEJARAH</v>
+            <v>PENDIDIKAN PROFESI GURU</v>
           </cell>
           <cell r="G87" t="str">
-            <v>S1</v>
+            <v>PR</v>
           </cell>
         </row>
       </sheetData>
@@ -2215,11 +2215,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H685"/>
+  <dimension ref="A1:H686"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A661" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H681" sqref="H681"/>
+      <pane ySplit="1" topLeftCell="A672" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H685" sqref="H685:H686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20776,7 +20776,7 @@
         <v>14</v>
       </c>
       <c r="H642" t="str">
-        <f t="shared" ref="H642:H685" si="10">IF(C642="","Calon Mahasiswa","Mahasiswa")</f>
+        <f t="shared" ref="H642:H686" si="10">IF(C642="","Calon Mahasiswa","Mahasiswa")</f>
         <v>Mahasiswa</v>
       </c>
     </row>
@@ -22023,6 +22023,35 @@
         <v>12</v>
       </c>
       <c r="H685" t="str">
+        <f t="shared" si="10"/>
+        <v>Mahasiswa</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A686" s="2">
+        <v>9106123163</v>
+      </c>
+      <c r="B686" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C686">
+        <v>5551230171</v>
+      </c>
+      <c r="D686" s="1">
+        <v>20102</v>
+      </c>
+      <c r="E686" s="6" t="str">
+        <f>VLOOKUP(D686,[1]Sheet2!$B$2:$G$87,4,FALSE)</f>
+        <v>MANAJEMEN</v>
+      </c>
+      <c r="F686" t="str">
+        <f>VLOOKUP(D686,[1]Sheet2!$B$2:$G$87,6,FALSE)</f>
+        <v>S1</v>
+      </c>
+      <c r="G686" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H686" t="str">
         <f t="shared" si="10"/>
         <v>Mahasiswa</v>
       </c>

--- a/docs/data_lulus_diterima_umm.xlsx
+++ b/docs/data_lulus_diterima_umm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\Dashboard\23pmb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218EC657-78D8-4B89-86BC-7123EEC77898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B9CC7B-BCEC-4705-AF4D-DBEE4691F6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$H$643</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$H$687</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="17">
   <si>
     <t>L</t>
   </si>
@@ -138,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -155,6 +155,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2215,11 +2219,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H686"/>
+  <dimension ref="A1:H687"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A672" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H685" sqref="H685:H686"/>
+      <selection pane="bottomLeft" activeCell="E692" sqref="E692"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20776,7 +20780,7 @@
         <v>14</v>
       </c>
       <c r="H642" t="str">
-        <f t="shared" ref="H642:H686" si="10">IF(C642="","Calon Mahasiswa","Mahasiswa")</f>
+        <f t="shared" ref="H642:H687" si="10">IF(C642="","Calon Mahasiswa","Mahasiswa")</f>
         <v>Mahasiswa</v>
       </c>
     </row>
@@ -22056,8 +22060,37 @@
         <v>Mahasiswa</v>
       </c>
     </row>
+    <row r="687" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A687" s="8">
+        <v>23529855</v>
+      </c>
+      <c r="B687" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C687" s="7">
+        <v>7776230072</v>
+      </c>
+      <c r="D687" s="1">
+        <v>7776</v>
+      </c>
+      <c r="E687" s="6" t="str">
+        <f>VLOOKUP(D687,[1]Sheet2!$B$2:$G$87,4,FALSE)</f>
+        <v>MAGISTER MANAJEMEN</v>
+      </c>
+      <c r="F687" t="str">
+        <f>VLOOKUP(D687,[1]Sheet2!$B$2:$G$87,6,FALSE)</f>
+        <v>S2</v>
+      </c>
+      <c r="G687" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H687" t="str">
+        <f t="shared" si="10"/>
+        <v>Mahasiswa</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H643" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H687" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
